--- a/Final Project/chatbot_chat_history.xlsx
+++ b/Final Project/chatbot_chat_history.xlsx
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
@@ -1557,6 +1557,302 @@
         <v>8</v>
       </c>
     </row>
+    <row r="50">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>15</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>EXIT</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>EXIT_BOT</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E52" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>17</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Hi I need to know about haircuts</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Sorry I'm not aware about this service. Hence I will inform this to the management and will reach back to you.</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="n">
+        <v>17</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>I need to know about haircut</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>We are providing Hair cuts for Ladies, Gents and Children hair cuts. Ladies Hair cut 20$ upwards. Gents Hair cut 10$ upwards. And we have special children hair cuts 6$ upwards.</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="n">
+        <v>17</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>So how about ladies hair cut ?</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>We are providing Hair cuts for Ladies, Gents and Children hair cuts. Ladies Hair cut 20$ upwards. Gents Hair cut 10$ upwards. And we have special children hair cuts 6$ upwards.</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" t="n">
+        <v>17</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>I need to know about women's haircut prices</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>We have special haircut styles for Womens. From $ 20</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B57" t="n">
+        <v>17</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Any pedicure ?</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Kick up your heels and enjoy a spa staple with a pedicure. Your feet will be polished and massaged to pretty perfection, and you’ll leave a more relaxed and more comfortable person. During a spa pedicure you should expect your feet to be soaked in warm water and your nails to be cut and shaped. Your nail spa therapist will use a pumice stone to buff away dry skin, and will follow up with an exfoliation. Prices from $ 50</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="n">
+        <v>17</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>So I need to make an appointment</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>For the appointment inquiry, I just need to confirmation details from you  :)First I need the person name for the appointment :)</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B59" t="n">
+        <v>17</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Anne silva</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>So this appointment for Anne? Isn't it ?</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="n">
+        <v>17</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Okay. Now could you please provide preferred date, required service and contact number?</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B61" t="n">
+        <v>17</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>25th December for a predicure. 07171783144</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Sorry, Required service is not detected! Please type a service which is availble on our saloon.</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B62" t="n">
+        <v>17</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>pedicure</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Okay Thank you ! Now I'm going to make an appointment inquiry for Anne for Pedicure on 25th December and contact number is 07171783144. Shall I confirm this?</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B63" t="n">
+        <v>17</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you for the confirmation. Our staff member will check the availabilty and get back to as soon as possible. :) </t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Final Project/chatbot_chat_history.xlsx
+++ b/Final Project/chatbot_chat_history.xlsx
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
@@ -1853,6 +1853,281 @@
         <v>500</v>
       </c>
     </row>
+    <row r="64">
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>19</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Hi!</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Hi ! How may I help you :)</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="n">
+        <v>19</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Good Evening</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Nice to meet you ! How can I help you?</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" t="n">
+        <v>19</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>I would like to your salon available services</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We give you current hairstyle tips and treatments around ongoing hair trends, always with professional hair care products. We provide Hair cutting, Coloring, Dressing, Steups, Hair massages, Facials, Predicure and Manicures. Our prices are based on our experience and on time and material needs, and are from-prices. Exact price can be given after consultation with your hairdresser. We are a cashless salon, we take debit / credit cards. By the way you could make appointments through chat :) </t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B68" t="n">
+        <v>19</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ohh okay, So how about the prices for facials</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Thank you ! Good Night!</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E69" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>21</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>I would like to know about facial prices</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>We will take care all of you face skin treatments and makeups with quality prodcuts in the industry. From $ 40</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="n">
+        <v>21</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>So I would like to put an appointment for facial</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Okay  :) I just need some information in order to make an appointment inquiry. First I need the person name for the appointment :)</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B72" t="n">
+        <v>21</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>It's for Anne</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Ohh okay :) So the appointment for Anne? Right ? :)</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B73" t="n">
+        <v>21</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Okay. Now could you please provide preferred date, required service and contact number?</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B74" t="n">
+        <v>21</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>I would prefer 27th December. 0717083144</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Sorry, Required service is not detected! Please type a service which is availble on our saloon.</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B75" t="n">
+        <v>21</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>I required a facial</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Okay Thank you ! Now I'm going to make an appointment inquiry for Anne for Facial on 27th December and contact number is 0717083144. Shall I confirm this?</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B76" t="n">
+        <v>21</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Yes confirm</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you for the confirmation. Our staff member will check the availabilty and get back to as soon as possible. :) </t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Final Project/chatbot_chat_history.xlsx
+++ b/Final Project/chatbot_chat_history.xlsx
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
@@ -2128,6 +2128,218 @@
         <v>500</v>
       </c>
     </row>
+    <row r="77">
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D77" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E77" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>23</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Hi do you have men's haircut</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>We have special haircut styles for Men. From $ 20</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="n">
+        <v>23</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>do you have mens haircut</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Sorry , I'm not aware about this service. Hence I will inform this to the management and will reach back to you.</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B80" t="n">
+        <v>23</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Thank you, could you please put an appointment</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Okay  :) I just need some information in order to make an appointment inquiry. So could you please tell me the person name for the appointment?</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B81" t="n">
+        <v>23</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>thank you!</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Sorry I'm unable find an appointment person name. Could you please tell me the name ?</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B82" t="n">
+        <v>23</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>EXIT</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>EXIT_BOT</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D83" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E83" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>25</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Thank you. Do you have garding</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Sorry , I'm not aware about this service. Hence I will inform this to the management and will reach back to you.</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="n">
+        <v>25</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Ohh okay so do you have waxing</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>We have special waxing services for mens and ladies. We have initimates area waxing for both men and women. Chest waxing for mens. Price depend on the service.</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B86" t="n">
+        <v>25</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Thank you!</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Thank you ! Good Night!</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Final Project/chatbot_chat_history.xlsx
+++ b/Final Project/chatbot_chat_history.xlsx
@@ -3,31 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="560" yWindow="1560" windowWidth="25040" windowHeight="13760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="560" yWindow="880" windowWidth="25040" windowHeight="13760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -51,27 +46,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -117,6 +97,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -124,9 +105,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -506,715 +484,714 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="27.83203125" customWidth="1" min="3" max="3"/>
-    <col width="46.83203125" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="55.5" customWidth="1" style="1" min="3" max="3"/>
+    <col width="78" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>sessionID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>userchat</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>botchat</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>predgroup</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hi! I'm Chathuranga</t>
+          <t>Hi, I need to remove my reservation.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hey  Good Afternoon! How can I help you ? :)</t>
+          <t>For the appointment cancelation, I just need to get confirmation details from you  :)First I need the person name for the appointment :)</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Good morning. I am Chathuranga</t>
+          <t>Jessica Fernando</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hey Good Afternoon Chathuranga! How do I help you? :)</t>
+          <t>So this appointment was made for Jessica Fernando? Isn't it ?</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">I need to know about hair color </t>
+          <t>Yeah</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sorry I'm not aware about this service. Hence I will inform this to the management and will reach back to you.</t>
+          <t>Okay. Now could you please provide contact number for the appointment which you have placed earlier?</t>
         </is>
       </c>
       <c r="E4" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EXIT</t>
+          <t>0778856789</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EXIT_BOT</t>
+          <t>Sorry, Phone number is not detected! Could you please type your phone number again?</t>
         </is>
       </c>
       <c r="E5" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>sessionID</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>userchat</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>botchat</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>predgroup</t>
-        </is>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0778856789</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sorry, Phone number is not detected! Could you please type your phone number again?</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hi!My name is Saman. I need to make an appointment</t>
+          <t>0778856789.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">For the appointment inquiry, I just need to confirmation details from you Saman :)Is this appointment for you Saman? </t>
+          <t>Sorry, Phone number is not detected! Could you please type your phone number again?</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>My phone number is 0778856789</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Okay. Now could you please provide preferred date, required service and contact number?</t>
+          <t>Okay Thank you ! Now I'm going to make an appointment cancelation inquiry for Jessica Fernando and contact number is 0778856789. Shall I confirm this?</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>yeah thank you</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you for the confirmation. Our staff member will process the cancelation request send you a sms. Thank you :) </t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Hi I would like to know prices of manicure and pedicure</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Kick up your heels and enjoy a spa staple with a pedicure. Your feet will be polished and massaged to pretty perfection, and you’ll leave a more relaxed and more comfortable person. During a spa pedicure you should expect your feet to be soaked in warm water and your nails to be cut and shaped. Your nail spa therapist will use a pumice stone to buff away dry skin, and will follow up with an exfoliation. Prices from $ 50</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>thank you and also i need to know about manicure cost.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>With nail salon services ranging from gel, acrylics, paraffin dips, and nail art, there is something for everyone looking for a manicure. Whether you just want a basic grooming and polish or want to go all out with 3D art and gradients. They help ensure healthy nails and hands and are a quick and easy way to change or polish your look. Prices from $ 20</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>25th October for a hair cut. 07170830144</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Sorry, Phone number is not detected! Please type at least one contact number.</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>and how about facial?</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>We will take care all of you face skin treatments and makeups with quality prodcuts in the industry. From $ 40</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0717524144.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Sorry, Phone number is not detected! Please type at least one contact number.</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>okay then, I want to make a reservation for facial, manicure and also pedicure</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Kick up your heels and enjoy a spa staple with a pedicure. Your feet will be polished and massaged to pretty perfection, and you’ll leave a more relaxed and more comfortable person. During a spa pedicure you should expect your feet to be soaked in warm water and your nails to be cut and shaped. Your nail spa therapist will use a pumice stone to buff away dry skin, and will follow up with an exfoliation. Prices from $ 50</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>4</v>
       </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>017861444.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Okay Thank you Saman! Now I'm going to make an appointment inquiry for Saman for Hair Cut on 25th October and contact number is 017861444. Shall I confirm this?</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No I want to make an appointment </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Awesome ! For the appointment inquiry process, I just need some details from you :)First I need the person name for the appointment :)</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>5</v>
       </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thank you Saman for the confirmation. Our staff member will check the availabilty and get back to as soon as possible. :) </t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="2" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Germine Nonis</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>So this appointment for Germine Nonis? Isn't it ?</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>yeah</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Okay. Now could you please provide preferred date, required service and contact number?</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Any Weekday, Manicure, Pedicure and facial  </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sorry, Phone number is not detected! Could you please type again your phone number?</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0715376974</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sorry, Phone number is not detected! Could you please type again your phone number?</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>This is my mom's number 0715376974. and this is my number 07399553242</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Okay Thank you ! Now I'm going to make an appointment inquiry for Germine Nonis for Manicure , Pedicure &amp; Facial on Weekday and contact number is 07399553242. Shall I confirm this?</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>yeah</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you for the confirmation. Our staff member will check the availabilty and get back to as soon as possible. :) </t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>sessionID</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>userchat</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>botchat</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>predgroup</t>
         </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Hi Good Morning</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Hey Good Afternoon ! How do I help you? :)</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>I need to cancel my appointment</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>For the appointment cancelation, I just need to get confirmation details from you  :)First I need the person name for the appointment :)</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>It was for anne</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>So the appointment was made for Anne? Right ? :)</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Okay. Now could you please provide contact number for the appointment which you have placed earlier?</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0717083144</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Sorry, Phone number is not detected! Please type at least one contact number.</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0717083144.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Okay Thank you ! Now I'm going to make an appointment cancelation inquiry for Anne and contact number is 0717083144. Shall I confirm this?</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thank you for the confirmation. Our staff member will process the cancelation request send you a sms. Thank you :) </t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>sessionID</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>userchat</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>botchat</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>predgroup</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B22" t="n">
-        <v>6</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Hi! I'm Shan. I need to make an appointment</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Okay Shan :) I just need some information in order to make an appointment inquiry. I'm making the appointment for Shan. Okay ? :)</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t xml:space="preserve">Hi could you please give me the prices about beard cut </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Okay. Now could you please provide preferred date, required service and contact number?</t>
+          <t>We provide wide range of beard cuts for gentlements. Please contact us through hotline for styles check. Price starting from $ 15.</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>500</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>29th December for a hair coloring. 0717083144</t>
+          <t>Thank You. An d also want know about price of head massage.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Okay Thank you Shan! Now I'm going to make an appointment inquiry for Shan for Hair Coloring on 29th December and contact number is 0717083144. Shall I confirm this?</t>
+          <t>30 luxurious minutes with care for your hair and scalp. A special treatment. Long durability that takes care of your hair. From $ 35</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>500</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
         <v>3</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Okay, Thank You. I'll let you know.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Thank you ! Good Night!</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Good Evening!</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Hey  Good Evening! How can I help you ? :)</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Hi! I need to make a reservation for hair stup.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Okay  :) I just need some information in order to make an appointment inquiry. First I need the person name for the appointment :)</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'm Anne. </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>I'm making the appointment for Anne. Okay ? :)</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>No sorry. I want to make an appointment for daughter Christine.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Ohh okay :) So the appointment for Christine? Right ? :)</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>yeah</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Okay. Now could you please provide preferred date, required service and contact number?</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For Next Friday evening, want to make a hair setup for my daughter for a party. and please contact me. This is my number 0787885676 </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Okay Thank you Anne! Now I'm going to make an appointment inquiry for Christine for Hair Setup on Next Friday and contact number is 0787885676. Shall I confirm this?</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>yeah</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thank you Shan for the confirmation. Our staff member will check the availabilty and get back to as soon as possible. :) </t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>sessionID</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>userchat</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="inlineStr">
-        <is>
-          <t>botchat</t>
-        </is>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>predgroup</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B27" t="n">
-        <v>7</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Hi</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hello Good Evening ! How can I help you today? </t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" t="n">
-        <v>7</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>I need to reschedu my appointment</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>For the appointment change, I just need to confirmation details from you  :)First I need the person name for the appointment :)</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B29" t="n">
-        <v>7</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>It is anne</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>So  was the appointment for Anne? Isn't it ?</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" t="n">
-        <v>7</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Okay. Now could you please provide preferred date and contact number for the new appointment?</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B31" t="n">
-        <v>7</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>I need it on 28th December. 0717083144</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Sorry, Phone number is not detected! Please type at least one contact number.</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="n">
+      <c r="B33" t="n">
         <v>5</v>
       </c>
-      <c r="B32" t="n">
-        <v>7</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>071703</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Okay Thank you Anne! Now I'm going to make an appointment change inquiry for Anne on 28th December. 0717083144 and contact number is 071703. Shall I confirm this?</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B33" t="n">
-        <v>7</v>
-      </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t xml:space="preserve">yeah </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thank you Anne for the confirmation. Our staff member will check the appointment change availabilty and get back to as soon as possible. :) </t>
+          <t xml:space="preserve">Thank you Anne for the confirmation. Our staff member will check the availabilty and get back to as soon as possible. :) </t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34">
@@ -1244,20 +1221,21 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Hi. I am Mudith</t>
+          <t>Hi! I'm Luvina. Can I know about startying price of hair colouring?</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Hey  Good Evening! How can I help you Mudith? :)</t>
+          <t>Simple coloring or alternatively loops (not foil loops). Haircuts and lighter styling are included. NOTE! All prices are from-prices, exact price can be given after consultation with your hairdresser.
+In some cases, decolorization / deep cleaning may be needed before other treatment. Have you dyed your hair before or done any other type of color treatment? Contact the salon before booking.</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1265,296 +1243,295 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
+        <v>7</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Okay Thank you. </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thank you Luvina! Good Night!</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
         <v>9</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>I need to know about hair cut</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>We are providing Hair cuts for Ladies, Gents and Children hair cuts. Ladies Hair cut 20$ upwards. Gents Hair cut 10$ upwards. And we have special children hair cuts 6$ upwards.</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B37" t="n">
-        <v>9</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>okay thank you!</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Thank you Mudith! Good Night!</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>sessionID</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>userchat</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="inlineStr">
-        <is>
-          <t>botchat</t>
-        </is>
-      </c>
-      <c r="E38" s="4" t="inlineStr">
-        <is>
-          <t>predgroup</t>
-        </is>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi, I'm Anne. I made a reservation for my daughter. I want to change the appointment date. </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Okay Anne :) I just need some information in order to make an appointment change. Was this appointment made for you Anne? </t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Hi I'm Jason</t>
+          <t>No this is made for my daughter, Christine.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Hey Good Evening Jason! How do I help you? :)</t>
+          <t>So the appointment was made for Christine? Right ? :)</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Doy you have hair color?</t>
+          <t>yeah</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sorry I'm not aware about this service. Hence I will inform this to the management and will reach back to you.</t>
+          <t>Okay. Now could you please provide preferred date and contact number for the new appointment?</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>EXIT</t>
+          <t>I want to make the new appointment date for Saturday Evening. An this is my number 0787885676</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>EXIT_BOT</t>
+          <t>Okay Thank you Anne! Now I'm going to make an appointment change inquiry for Christine on Saturday and contact number is 0787885676. Shall I confirm this?</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="4" t="inlineStr">
+      <c r="A42" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>yeah, Thank You So Much.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you Anne for the confirmation. Our staff member will check the appointment change availabilty and get back to as soon as possible. :) </t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>sessionID</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t>userchat</t>
         </is>
       </c>
-      <c r="D42" s="4" t="inlineStr">
+      <c r="D43" s="4" t="inlineStr">
         <is>
           <t>botchat</t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="E43" s="4" t="inlineStr">
         <is>
           <t>predgroup</t>
         </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B43" t="n">
-        <v>13</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Hi</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Hello !</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>I need to know hair cuts</t>
+          <t>I am Rev. Daya Mendis.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sorry I'm not aware about this service. Hence I will inform this to the management and will reach back to you.</t>
+          <t>Hello Rev! How Can I help you? :)</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="n">
+        <v>11</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>I need to make a reservation for haircut.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Awesome Rev! For the appointment inquiry process, I just need some details from you :)So the appointment for Rev? Isn't it ?</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B45" t="n">
-        <v>13</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>okay bye</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Thank you ! Good Night!</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>sessionID</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>userchat</t>
-        </is>
-      </c>
-      <c r="D46" s="4" t="inlineStr">
-        <is>
-          <t>botchat</t>
-        </is>
-      </c>
-      <c r="E46" s="4" t="inlineStr">
-        <is>
-          <t>predgroup</t>
-        </is>
+      <c r="B46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Rev. Daya</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>So this appointment for Rev. Daya? Isn't it ?</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B47" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t>yeah</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Howdy! How can I help you !</t>
+          <t>Okay. Now could you please provide preferred date, required service and contact number?</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B48" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Need to know saloon prices</t>
+          <t>12th January. Hair cut 0752589674</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>This is Info about saloon services in general!</t>
+          <t>Okay Thank you Rev! Now I'm going to make an appointment inquiry for Rev. Daya for Cut on 12th January and contact number is 0752589674. Shall I confirm this?</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B49" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ok thanks</t>
+          <t>yeah hair cut for Jan 12th</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Thank you ! Good Night!</t>
+          <t xml:space="preserve">Thank you Rev for the confirmation. Our staff member will check the availabilty and get back to as soon as possible. :) </t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50">
@@ -1584,122 +1561,122 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>EXIT</t>
+          <t>Hi can you please give me the prices of waxing?</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>EXIT_BOT</t>
+          <t>Awesome ! For the appointment inquiry process, I just need some details from you :)First I need the person name for the appointment :)</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>sessionID</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="inlineStr">
-        <is>
-          <t>userchat</t>
-        </is>
-      </c>
-      <c r="D52" s="4" t="inlineStr">
-        <is>
-          <t>botchat</t>
-        </is>
-      </c>
-      <c r="E52" s="4" t="inlineStr">
-        <is>
-          <t>predgroup</t>
-        </is>
+      <c r="A52" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>No I want know about prices of waxing.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Sorry I'm unable find an appointment person name. Could you please tell me the name ?</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B53" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Hi I need to know about haircuts</t>
+          <t>No no I don't want to make an appointment. I want to know about prices of waxing.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Sorry I'm not aware about this service. Hence I will inform this to the management and will reach back to you.</t>
+          <t>Sorry I'm unable find an appointment person name. Could you please tell me the name ?</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B54" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>I need to know about haircut</t>
+          <t>EXIT</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>We are providing Hair cuts for Ladies, Gents and Children hair cuts. Ladies Hair cut 20$ upwards. Gents Hair cut 10$ upwards. And we have special children hair cuts 6$ upwards.</t>
+          <t>EXIT_BOT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B55" t="n">
-        <v>17</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>So how about ladies hair cut ?</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>We are providing Hair cuts for Ladies, Gents and Children hair cuts. Ladies Hair cut 20$ upwards. Gents Hair cut 10$ upwards. And we have special children hair cuts 6$ upwards.</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>4</v>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>I need to know about women's haircut prices</t>
+          <t>HI! I need to know about price of waxing.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>We have special haircut styles for Womens. From $ 20</t>
+          <t>We have special waxing services for mens and ladies. We have initimates area waxing for both men and women. Chest waxing for mens. Price depend on the service.</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1708,19 +1685,19 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Any pedicure ?</t>
+          <t>How about chest waxing for men?</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Kick up your heels and enjoy a spa staple with a pedicure. Your feet will be polished and massaged to pretty perfection, and you’ll leave a more relaxed and more comfortable person. During a spa pedicure you should expect your feet to be soaked in warm water and your nails to be cut and shaped. Your nail spa therapist will use a pumice stone to buff away dry skin, and will follow up with an exfoliation. Prices from $ 50</t>
+          <t>We have special waxing services for mens and ladies. We have initimates area waxing for both men and women. Chest waxing for mens. Price depend on the service.</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1729,82 +1706,83 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>So I need to make an appointment</t>
+          <t>okay thank You.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>For the appointment inquiry, I just need to confirmation details from you  :)First I need the person name for the appointment :)</t>
+          <t>Thank you ! Good Night!</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B59" t="n">
-        <v>17</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Anne silva</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>So this appointment for Anne? Isn't it ?</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>500</v>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E59" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
         <v>17</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Hi I want to make an appointment for hair colouring.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Okay. Now could you please provide preferred date, required service and contact number?</t>
+          <t>Okay  :) I just need some information in order to make an appointment inquiry. So could you please tell me the person name for the appointment?</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
         <v>17</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>25th December for a predicure. 07171783144</t>
+          <t>Sapna</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sorry, Required service is not detected! Please type a service which is availble on our saloon.</t>
+          <t>Sorry I'm unable find an appointment person name. Could you please tell me the name ?</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -1813,19 +1791,19 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B62" t="n">
         <v>17</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>pedicure</t>
+          <t>Sapna</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Okay Thank you ! Now I'm going to make an appointment inquiry for Anne for Pedicure on 25th December and contact number is 07171783144. Shall I confirm this?</t>
+          <t>Sorry I'm unable find an appointment person name. Could you please tell me the name ?</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1834,19 +1812,19 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B63" t="n">
         <v>17</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>My name is Sapna</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thank you for the confirmation. Our staff member will check the availabilty and get back to as soon as possible. :) </t>
+          <t>Sorry I'm unable find an appointment person name. Could you please tell me the name ?</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1854,380 +1832,379 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="4" t="inlineStr">
-        <is>
-          <t>sessionID</t>
-        </is>
-      </c>
-      <c r="C64" s="4" t="inlineStr">
-        <is>
-          <t>userchat</t>
-        </is>
-      </c>
-      <c r="D64" s="4" t="inlineStr">
-        <is>
-          <t>botchat</t>
-        </is>
-      </c>
-      <c r="E64" s="4" t="inlineStr">
-        <is>
-          <t>predgroup</t>
-        </is>
+      <c r="A64" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B64" t="n">
+        <v>17</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Sapna Fernando</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Ohh okay :) So the appointment for Sapna Fernando? Right ? :)</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Hi!</t>
+          <t>yeah</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Hi ! How may I help you :)</t>
+          <t>Okay. Now could you please provide preferred date, required service and contact number?</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Good Evening</t>
+          <t>Next Sunday, Hair colouring 0777790174</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Nice to meet you ! How can I help you?</t>
+          <t>Okay Thank you ! Now I'm going to make an appointment inquiry for Sapna Fernando for Hair Colouring on Next Sunday and contact number is 0777790174. Shall I confirm this?</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B67" t="n">
+        <v>17</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>yeah</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you for the confirmation. Our staff member will check the availabilty and get back to as soon as possible. :) </t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E68" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" t="n">
         <v>19</v>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>I would like to your salon available services</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We give you current hairstyle tips and treatments around ongoing hair trends, always with professional hair care products. We provide Hair cutting, Coloring, Dressing, Steups, Hair massages, Facials, Predicure and Manicures. Our prices are based on our experience and on time and material needs, and are from-prices. Exact price can be given after consultation with your hairdresser. We are a cashless salon, we take debit / credit cards. By the way you could make appointments through chat :) </t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B68" t="n">
-        <v>19</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Ohh okay, So how about the prices for facials</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Thank you ! Good Night!</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="4" t="inlineStr">
-        <is>
-          <t>sessionID</t>
-        </is>
-      </c>
-      <c r="C69" s="4" t="inlineStr">
-        <is>
-          <t>userchat</t>
-        </is>
-      </c>
-      <c r="D69" s="4" t="inlineStr">
-        <is>
-          <t>botchat</t>
-        </is>
-      </c>
-      <c r="E69" s="4" t="inlineStr">
-        <is>
-          <t>predgroup</t>
-        </is>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Hi!</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Hello !</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>I would like to know about facial prices</t>
+          <t>I want to cancel a booking.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>We will take care all of you face skin treatments and makeups with quality prodcuts in the industry. From $ 40</t>
+          <t>For the appointment cancelation, I just need some details from you :)First I need the person name for the appointment :)</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>So I would like to put an appointment for facial</t>
+          <t>Shashi</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Okay  :) I just need some information in order to make an appointment inquiry. First I need the person name for the appointment :)</t>
+          <t>So this appointment was made for Shashi? Isn't it ?</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>700</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B72" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>It's for Anne</t>
+          <t>yeah</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Ohh okay :) So the appointment for Anne? Right ? :)</t>
+          <t>Okay. Now could you please provide contact number for the appointment which you have placed earlier?</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B73" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>0717083144</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Okay. Now could you please provide preferred date, required service and contact number?</t>
+          <t>Okay Thank you ! Now I'm going to make an appointment cancelation inquiry for Shashi and contact number is 0717083144. Shall I confirm this?</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B74" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>I would prefer 27th December. 0717083144</t>
+          <t>yes. thank you.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sorry, Required service is not detected! Please type a service which is availble on our saloon.</t>
+          <t xml:space="preserve">Thank you for the confirmation. Our staff member will process the cancelation request send you a sms. Thank you :) </t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B75" t="n">
-        <v>21</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>I required a facial</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Okay Thank you ! Now I'm going to make an appointment inquiry for Anne for Facial on 27th December and contact number is 0717083144. Shall I confirm this?</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>500</v>
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D75" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E75" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
         <v>21</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Yes confirm</t>
+          <t>Good Morning</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thank you for the confirmation. Our staff member will check the availabilty and get back to as soon as possible. :) </t>
+          <t>Hello ! How Can I help you? :)</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="4" t="inlineStr">
-        <is>
-          <t>sessionID</t>
-        </is>
-      </c>
-      <c r="C77" s="4" t="inlineStr">
-        <is>
-          <t>userchat</t>
-        </is>
-      </c>
-      <c r="D77" s="4" t="inlineStr">
-        <is>
-          <t>botchat</t>
-        </is>
-      </c>
-      <c r="E77" s="4" t="inlineStr">
-        <is>
-          <t>predgroup</t>
-        </is>
+      <c r="A77" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="n">
+        <v>21</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>I would like to make an appointment for my baby.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>For the appointment inquiry, I just need to confirmation details from you  :)First I need the person name for the appointment :)</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Hi do you have men's haircut</t>
+          <t>Baby Yohan</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>We have special haircut styles for Men. From $ 20</t>
+          <t>Ohh okay :) So the appointment for Baby Yohan? Right ? :)</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B79" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>do you have mens haircut</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Sorry , I'm not aware about this service. Hence I will inform this to the management and will reach back to you.</t>
+          <t>Okay. Now could you please provide preferred date, required service and contact number?</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Thank you, could you please put an appointment</t>
+          <t>25th of January</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Okay  :) I just need some information in order to make an appointment inquiry. So could you please tell me the person name for the appointment?</t>
+          <t>Sorry, Phone number is not detected! Could you please type again your phone number?</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>thank you!</t>
+          <t>0738486951</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Sorry I'm unable find an appointment person name. Could you please tell me the name ?</t>
+          <t xml:space="preserve">Sorry, Required service is not found on the salon product list! Could you please try again with different rephrase/similar name or general name for the particular service ? </t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2236,108 +2213,1842 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B82" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>EXIT</t>
+          <t>Sorry. I forgot that. I want a haircut for my baby.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>EXIT_BOT</t>
+          <t>Okay Thank you ! Now I'm going to make an appointment inquiry for Baby Yohan for Haircut on 25th of January and contact number is 0738486951. Shall I confirm this?</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="4" t="inlineStr">
+      <c r="A83" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B83" t="n">
+        <v>21</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>yes Sure</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you for the confirmation. Our staff member will check the availabilty and get back to as soon as possible. :) </t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="4" t="inlineStr">
         <is>
           <t>sessionID</t>
         </is>
       </c>
-      <c r="C83" s="4" t="inlineStr">
+      <c r="C84" s="4" t="inlineStr">
         <is>
           <t>userchat</t>
         </is>
       </c>
-      <c r="D83" s="4" t="inlineStr">
+      <c r="D84" s="4" t="inlineStr">
         <is>
           <t>botchat</t>
         </is>
       </c>
-      <c r="E83" s="4" t="inlineStr">
+      <c r="E84" s="4" t="inlineStr">
         <is>
           <t>predgroup</t>
         </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B84" t="n">
-        <v>25</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Thank you. Do you have garding</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Sorry , I'm not aware about this service. Hence I will inform this to the management and will reach back to you.</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ohh okay so do you have waxing</t>
+          <t>Good morning</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>We have special waxing services for mens and ladies. We have initimates area waxing for both men and women. Chest waxing for mens. Price depend on the service.</t>
+          <t>Hey  Good Morning! How can I help you ? :)</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" t="n">
+        <v>23</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>I would like to know about your services</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We provide our services ladies, gentlements and childrens. We give you current hairstyle tips and treatments around ongoing hair trends, always with professional hair care products. We provide Hair cutting, Coloring, Dressing, Steups, Hair massages, Facials, Predicure and Manicures. Our prices are based on our experience and on time and material needs, and are from-prices. Exact price can be given after consultation with your hairdresser. We are a cashless salon, we take debit / credit cards. By the way you could make appointments through chat :) </t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B87" t="n">
+        <v>23</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Thank you for the brief description. By the way do you have makeup service for ladies?</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Sorry , I'm not aware about this service. Hence I will inform this to the management and will reach back to you.</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B88" t="n">
+        <v>23</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>okay. thank you so much.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Thank you ! Have a nice day!</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C89" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D89" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E89" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B90" t="n">
         <v>25</v>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Thank you!</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Hi Good morning!</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Nice to meet you ! How can I help you?</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" t="n">
+        <v>25</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>I Need to know about Prices of Manicure.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>With nail salon services ranging from gel, acrylics, paraffin dips, and nail art, there is something for everyone looking for a manicure. Whether you just want a basic grooming and polish or want to go all out with 3D art and gradients. They help ensure healthy nails and hands and are a quick and easy way to change or polish your look. Prices from $ 20</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B92" t="n">
+        <v>25</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>okay thank you</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Thank you ! Have a nice day!</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C93" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D93" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E93" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>27</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Hi Good afternoon!</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Hey Good Afternoon ! How do I help you? :)</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B95" t="n">
+        <v>27</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>I want to change my reservation</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>For the appointment change, I just need to confirmation details from you  :)So could you please tell me the person name for the appointment which you have placed?</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B96" t="n">
+        <v>27</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Dorin Nonis</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>So this appointment was made for Dorin Nonis? Isn't it ?</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B97" t="n">
+        <v>27</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>yeah</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Okay. Now could you please provide preferred date and contact number for the new appointment?</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B98" t="n">
+        <v>27</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>21st morning. 0725467496</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Sorry CALLER!, Phone number is not detected! Could you please type your phone number again? Eg:- 0777885678, 0717083144, …</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B99" t="n">
+        <v>27</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0725467496</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sorry, Preference date is not detected! Could you please type again your preference date? Eg :- January 1st, 1st January, 1/1/2021, Next Saturday </t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B100" t="n">
+        <v>27</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>21/1/2021, Morning session</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sorry, Preference date is not detected! Could you please type again your preference date? Eg :- January 1st, 1st January, 1/1/2021, Next Saturday </t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B101" t="n">
+        <v>27</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>21/1/2021</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sorry, Preference date is not detected! Could you please type again your preference date? Eg :- January 1st, 1st January, 1/1/2021, Next Saturday </t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B102" t="n">
+        <v>27</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>21st of January</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Okay Thank you ! Now I'm going to make an appointment change inquiry for Dorin Nonis on 21st of January and contact number is 0725467496 &amp; 21/1/2021. Shall I confirm this?</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B103" t="n">
+        <v>27</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>yeah</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you for the confirmation. Our staff member will check the appointment change availabilty and get back to as soon as possible. :) </t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C104" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D104" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E104" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>29</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Hi. I want to make an appointment</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Okay  :) I just need some information in order to make an appointment inquiry. First I need the person name for the appointment :)</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B106" t="n">
+        <v>29</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Lalith Silva</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Ohh okay :) So the appointment for Lalith Silva? Right ? :)</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B107" t="n">
+        <v>29</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Okay. Now could you please provide preferred date, required service and contact number?</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B108" t="n">
+        <v>29</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Next Saturday, Haircut and beard cut, 0767878963</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Okay Thank you ! Now I'm going to make an appointment inquiry for Lalith Silva for Beard Cut on Next Saturday and contact number is 0767878963. Shall I confirm this?</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B109" t="n">
+        <v>29</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you for the confirmation. Our staff member will check the availabilty and get back to as soon as possible. :) </t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C110" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D110" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E110" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>31</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi! Could you please provide me the brief description about your services ? </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Sorry , I'm not aware about this service. Hence I will inform this to the management and will reach back to you.</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B112" t="n">
+        <v>31</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>No I want to know about your services.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Sorry , I'm not aware about this service. Hence I will inform this to the management and will reach back to you.</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B113" t="n">
+        <v>31</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>what services do you have?</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We provide our services ladies, gentlements and childrens. We give you current hairstyle tips and treatments around ongoing hair trends, always with professional hair care products. We provide Hair cutting, Coloring, Dressing, Steups, Hair massages, Facials, Predicure and Manicures. Our prices are based on our experience and on time and material needs, and are from-prices. Exact price can be given after consultation with your hairdresser. We are a cashless salon, we take debit / credit cards. By the way you could make appointments through chat :) </t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B114" t="n">
+        <v>31</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Okay Thank You.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Thank you ! Have a nice day!</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C115" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D115" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E115" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>33</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>I May I know about your services?</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We provide our services ladies, gentlements and childrens. We give you current hairstyle tips and treatments around ongoing hair trends, always with professional hair care products. We provide Hair cutting, Coloring, Dressing, Steups, Hair massages, Facials, Predicure and Manicures. Our prices are based on our experience and on time and material needs, and are from-prices. Exact price can be given after consultation with your hairdresser. We are a cashless salon, we take debit / credit cards. By the way you could make appointments through chat :) </t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B117" t="n">
+        <v>33</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>okay thank you.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>Thank you ! Good Night!</t>
         </is>
       </c>
-      <c r="E86" t="n">
+      <c r="E117" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C118" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D118" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E118" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>35</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi! Could you please help me to cancel of my sons reservation? </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>For the appointment cancelation, I just need some details from you :)So could you please tell me the person name for the appointment which you have placed?</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B120" t="n">
+        <v>35</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Migara Wimalasena</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>So the appointment was made for Migara Wimalasena? Right ? :)</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B121" t="n">
+        <v>35</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Yeah</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Okay. Now could you please provide contact number for the appointment which you have placed earlier?</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B122" t="n">
+        <v>35</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0751593614</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Okay Thank you ! Now I'm going to make an appointment cancelation inquiry for Migara Wimalasena and contact number is 0751593614. Shall I confirm this?</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B123" t="n">
+        <v>35</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>yes. thank you.</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you for the confirmation. Our staff member will process the cancelation request send you a sms. Thank you :) </t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C124" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D124" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E124" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>37</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Hello! May I know about price of pedicure?</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Kick up your heels and enjoy a spa staple with a pedicure. Your feet will be polished and massaged to pretty perfection, and you’ll leave a more relaxed and more comfortable person. During a spa pedicure you should expect your feet to be soaked in warm water and your nails to be cut and shaped. Your nail spa therapist will use a pumice stone to buff away dry skin, and will follow up with an exfoliation. Prices from $ 50</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B126" t="n">
+        <v>37</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Okay thank you. So Could you please make a reservation? </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Thank you ! Good Night!</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D127" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E127" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>39</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Good Evening! I'm Gayani. I want to make a reservation.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Awesome Gayani! For the appointment inquiry process, I just need some details from you :)Is this appointment for you Gayani? </t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B129" t="n">
+        <v>39</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>No. This is for my Boss, Jayanath.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>So this appointment for Boss Jayanath? Isn't it ?</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B130" t="n">
+        <v>39</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Jayanath Ratnasekara</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Ohh okay :) So the appointment for Jayanath Ratnasekara? Right ? :)</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B131" t="n">
+        <v>39</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Okay. Now could you please provide preferred date, required service and contact number?</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B132" t="n">
+        <v>39</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Next Sunday, Morning (VIP Session). He need a Haircut, beard cut and also a head massage. This is my contact number 078880600</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Okay Thank you Gayani! Now I'm going to make an appointment inquiry for Jayanath Ratnasekara for Beard Cut &amp; Head Massage on Next Sunday and contact number is 078880600. Shall I confirm this?</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B133" t="n">
+        <v>39</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>No, he need a haircut too.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Sorry Gayani! Could you please tell me again the preferred  date, required service and contact number?</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B134" t="n">
+        <v>39</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Next Sunday, Morning session (VIP Session). He need a haircut, beard cut and also a head massage. This is my contact number 078880600</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Okay Thank you Gayani! Now I'm going to make an appointment inquiry for Jayanath Ratnasekara for Haircut , Beard Cut &amp; Head Massage on Next Sunday and contact number is 078880600. Shall I confirm this?</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B135" t="n">
+        <v>39</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Yeah, Sure. Thank you.</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you Gayani for the confirmation. Our staff member will check the availabilty and get back to as soon as possible. :) </t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D136" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E136" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>41</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Hey! I want put an appointment for my husband.</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Awesome ! For the appointment inquiry process, I just need some details from you :)So could you please tell me the person name for the appointment?</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B138" t="n">
+        <v>41</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Shenal Fernando</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Ohh okay :) So the appointment for Fernando? Right ? :)</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B139" t="n">
+        <v>41</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Shenal Fernando</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Ohh okay :) So the appointment for Fernando? Right ? :)</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B140" t="n">
+        <v>41</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Shenal</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Sorry I'm unable find an appointment person name. Could you please tell me the name ?</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B141" t="n">
+        <v>41</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Shenal Fernando</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Ohh okay :) So the appointment for Fernando? Right ? :)</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B142" t="n">
+        <v>41</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>No. His name is Shenal.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Sorry I'm unable find an appointment person name. Could you please tell me the name ?</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B143" t="n">
+        <v>41</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Shenal</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Sorry I'm unable find an appointment person name. Could you please tell me the name ?</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B144" t="n">
+        <v>41</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Shenal Fernando</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Ohh okay :) So the appointment for Fernando? Right ? :)</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B145" t="n">
+        <v>41</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>No. Actually My husband's name is SHENAL</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Is this appointment for you Shenal? </t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B146" t="n">
+        <v>41</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>No, My name is Shalini. I want to put an appointment for my husband Shenal</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>So this appointment for Shalini Shenal? Isn't it ?</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B147" t="n">
+        <v>41</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>EXIT</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>EXIT_BOT</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C148" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D148" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E148" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>43</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Hey. My name is Shalini. I want to put an appointment for my husband.</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>For the appointment inquiry, I just need to confirmation details from you Shalini :)So is this for you Shalini?</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B150" t="n">
+        <v>43</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>No, This is for my husband, Shenal Fernando.</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>So this appointment for Shenal Fernando? Isn't it ?</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B151" t="n">
+        <v>43</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>yeah</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Okay. Now could you please provide preferred date, required service and contact number?</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B152" t="n">
+        <v>43</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Thursday evening, for waxing, 0786608899</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Sorry, Phone number is not detected! Could you please type again your phone number?</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B153" t="n">
+        <v>43</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0788668899</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Okay Thank you Shalini! Now I'm going to make an appointment inquiry for Shenal Fernando for Waxing on Thursday and contact number is 0788668899. Shall I confirm this?</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B154" t="n">
+        <v>43</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you Shalini for the confirmation. Our staff member will check the availabilty and get back to as soon as possible. :) </t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C155" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D155" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E155" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B156" t="n">
+        <v>45</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>I want to remove an appointment.</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>For the appointment cancelation, I just need to get confirmation details from you  :)First I need the person name for the appointment :)</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B157" t="n">
+        <v>45</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Manoj</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>So the appointment was made for Manoj? Right ? :)</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B158" t="n">
+        <v>45</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Okay. Now could you please provide contact number for the appointment which you have placed earlier?</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B159" t="n">
+        <v>45</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0736655432</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Okay Thank you ! Now I'm going to make an appointment cancelation inquiry for Manoj and contact number is 0736655432. Shall I confirm this?</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B160" t="n">
+        <v>45</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you for the confirmation. Our staff member will process the cancelation request send you a sms. Thank you :) </t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" s="4" t="inlineStr">
+        <is>
+          <t>sessionID</t>
+        </is>
+      </c>
+      <c r="C161" s="4" t="inlineStr">
+        <is>
+          <t>userchat</t>
+        </is>
+      </c>
+      <c r="D161" s="4" t="inlineStr">
+        <is>
+          <t>botchat</t>
+        </is>
+      </c>
+      <c r="E161" s="4" t="inlineStr">
+        <is>
+          <t>predgroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B162" t="n">
+        <v>47</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Hello! May I know about price of facial?</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>We will take care all of you face skin treatments and makeups with quality prodcuts in the industry. From $ 40</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B163" t="n">
+        <v>47</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>okay, thank you. By the way i need an appointment for a facial.</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>For the appointment inquiry, I just need to confirmation details from you  :)So could you please tell me the person name for the appointment?</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B164" t="n">
+        <v>47</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Suvini</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Sorry I'm unable find an appointment person name. Could you please tell me the name ?</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B165" t="n">
+        <v>47</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Suvini Mendis</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>So this appointment for Suvini Mendis? Isn't it ?</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B166" t="n">
+        <v>47</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Okay. Now could you please provide preferred date, required service and contact number?</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B167" t="n">
+        <v>47</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Any weekday (Morning Sessions), Facial, 0787799739</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Okay Thank you ! Now I'm going to make an appointment inquiry for Suvini Mendis for Facial on weekday and contact number is 0787799739. Shall I confirm this?</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B168" t="n">
+        <v>47</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you for the confirmation. Our staff member will check the availabilty and get back to as soon as possible. :) </t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
